--- a/data/output/FV2304_FV2210/UTILMD/11076.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11076.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6028" uniqueCount="421">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6049" uniqueCount="421">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1372,6 +1372,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U282" totalsRowShown="0">
+  <autoFilter ref="A1:U282"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1661,7 +1691,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -14574,5 +14607,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11076.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11076.xlsx
@@ -2626,7 +2626,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2960,7 +2960,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3282,7 +3282,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="K25" s="2"/>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -4754,7 +4754,7 @@
         <v>390</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4962,7 +4962,7 @@
         <v>391</v>
       </c>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -5164,7 +5164,7 @@
         <v>392</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5542,7 +5542,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5728,7 +5728,7 @@
         <v>390</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5866,7 +5866,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -6016,7 +6016,7 @@
         <v>395</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -6154,7 +6154,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6304,7 +6304,7 @@
         <v>397</v>
       </c>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6492,7 +6492,7 @@
         <v>390</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6910,7 +6910,7 @@
       </c>
       <c r="K91" s="2"/>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -7220,7 +7220,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7680,7 +7680,7 @@
         <v>398</v>
       </c>
       <c r="L106" s="4"/>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N106" s="2" t="s">
@@ -7976,7 +7976,7 @@
         <v>395</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8114,7 +8114,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -8264,7 +8264,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8468,7 +8468,7 @@
         <v>400</v>
       </c>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8606,7 +8606,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8756,7 +8756,7 @@
         <v>401</v>
       </c>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -9000,7 +9000,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="K136" s="2"/>
       <c r="L136" s="4"/>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N136" s="2" t="s">
@@ -9280,7 +9280,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9464,7 +9464,7 @@
       </c>
       <c r="K143" s="2"/>
       <c r="L143" s="4"/>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N143" s="2" t="s">
@@ -9708,7 +9708,7 @@
         <v>403</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9846,7 +9846,7 @@
       </c>
       <c r="K151" s="2"/>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="K154" s="2"/>
       <c r="L154" s="4"/>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N154" s="2" t="s">
@@ -10200,7 +10200,7 @@
         <v>405</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10338,7 +10338,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10490,7 +10490,7 @@
         <v>407</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="K178" s="2"/>
       <c r="L178" s="4"/>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N178" s="2" t="s">
@@ -11340,7 +11340,7 @@
         <v>408</v>
       </c>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11546,7 +11546,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -11696,7 +11696,7 @@
         <v>409</v>
       </c>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -11834,7 +11834,7 @@
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -12034,7 +12034,7 @@
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -12186,7 +12186,7 @@
         <v>410</v>
       </c>
       <c r="L198" s="4"/>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N198" s="2" t="s">
@@ -12334,7 +12334,7 @@
       </c>
       <c r="K201" s="2"/>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -12538,7 +12538,7 @@
         <v>412</v>
       </c>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -12934,7 +12934,7 @@
         <v>413</v>
       </c>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -13268,7 +13268,7 @@
         <v>414</v>
       </c>
       <c r="L220" s="4"/>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N220" s="2" t="s">
@@ -13406,7 +13406,7 @@
       </c>
       <c r="K223" s="2"/>
       <c r="L223" s="4"/>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N223" s="2" t="s">
@@ -13550,7 +13550,7 @@
       </c>
       <c r="K226" s="2"/>
       <c r="L226" s="4"/>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N226" s="2" t="s">
@@ -13688,7 +13688,7 @@
         <v>415</v>
       </c>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -13836,7 +13836,7 @@
       </c>
       <c r="K232" s="2"/>
       <c r="L232" s="4"/>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N232" s="2" t="s">
@@ -14148,7 +14148,7 @@
         <v>414</v>
       </c>
       <c r="L238" s="4"/>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N238" s="2" t="s">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="4"/>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N244" s="2" t="s">
@@ -14570,7 +14570,7 @@
         <v>418</v>
       </c>
       <c r="L247" s="4"/>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N247" s="2" t="s">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -14854,7 +14854,7 @@
       </c>
       <c r="K253" s="2"/>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -15002,7 +15002,7 @@
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -15138,7 +15138,7 @@
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="4"/>
-      <c r="M259" s="2" t="s">
+      <c r="M259" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N259" s="2" t="s">
@@ -15288,7 +15288,7 @@
         <v>419</v>
       </c>
       <c r="L262" s="4"/>
-      <c r="M262" s="2" t="s">
+      <c r="M262" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N262" s="2" t="s">
@@ -15584,7 +15584,7 @@
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="4"/>
-      <c r="M268" s="2" t="s">
+      <c r="M268" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N268" s="2" t="s">
@@ -15788,7 +15788,7 @@
         <v>420</v>
       </c>
       <c r="L272" s="4"/>
-      <c r="M272" s="2" t="s">
+      <c r="M272" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N272" s="2" t="s">
@@ -16178,7 +16178,7 @@
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="4"/>
-      <c r="M280" s="2" t="s">
+      <c r="M280" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N280" s="2"/>
